--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EDD305-7B48-7748-B395-C6F4D6404650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF415A-1F13-F841-A5C6-79AE16274F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -466,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2988,6 +2999,29 @@
         <v>10950</v>
       </c>
     </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B110">
+        <v>791752</v>
+      </c>
+      <c r="C110">
+        <v>788358</v>
+      </c>
+      <c r="D110">
+        <v>328913</v>
+      </c>
+      <c r="E110">
+        <v>245097</v>
+      </c>
+      <c r="F110" s="5">
+        <v>16300</v>
+      </c>
+      <c r="G110" s="5">
+        <v>13853</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF415A-1F13-F841-A5C6-79AE16274F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8569E28-9510-5249-A7BA-475050E73544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3022,6 +3022,98 @@
         <v>13853</v>
       </c>
     </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B111">
+        <v>853112</v>
+      </c>
+      <c r="C111">
+        <v>794973</v>
+      </c>
+      <c r="D111">
+        <v>328913</v>
+      </c>
+      <c r="E111">
+        <v>246563</v>
+      </c>
+      <c r="F111" s="5">
+        <v>16300</v>
+      </c>
+      <c r="G111" s="5">
+        <v>14545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B112">
+        <v>853112</v>
+      </c>
+      <c r="C112">
+        <v>802231</v>
+      </c>
+      <c r="D112">
+        <v>328913</v>
+      </c>
+      <c r="E112">
+        <v>246924</v>
+      </c>
+      <c r="F112" s="5">
+        <v>16300</v>
+      </c>
+      <c r="G112" s="5">
+        <v>14951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B113">
+        <v>853112</v>
+      </c>
+      <c r="C113">
+        <v>809612</v>
+      </c>
+      <c r="D113">
+        <v>328913</v>
+      </c>
+      <c r="E113">
+        <v>247676</v>
+      </c>
+      <c r="F113" s="5">
+        <v>16300</v>
+      </c>
+      <c r="G113" s="5">
+        <v>15036</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B114">
+        <v>895402</v>
+      </c>
+      <c r="C114">
+        <v>818656</v>
+      </c>
+      <c r="D114">
+        <v>328913</v>
+      </c>
+      <c r="E114">
+        <v>250541</v>
+      </c>
+      <c r="F114" s="5">
+        <v>16300</v>
+      </c>
+      <c r="G114" s="5">
+        <v>15423</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8569E28-9510-5249-A7BA-475050E73544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49307022-471C-344D-934E-98FDBC1D2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3114,6 +3114,29 @@
         <v>15423</v>
       </c>
     </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B115">
+        <v>895402</v>
+      </c>
+      <c r="C115">
+        <v>849753</v>
+      </c>
+      <c r="D115">
+        <v>328913</v>
+      </c>
+      <c r="E115">
+        <v>256028</v>
+      </c>
+      <c r="F115" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G115" s="5">
+        <v>18964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49307022-471C-344D-934E-98FDBC1D2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF2319-8441-5949-851D-6CF15FDB4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42920" yWindow="500" windowWidth="19080" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3137,6 +3137,29 @@
         <v>18964</v>
       </c>
     </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B116">
+        <v>895402</v>
+      </c>
+      <c r="C116">
+        <v>858193</v>
+      </c>
+      <c r="D116">
+        <v>328913</v>
+      </c>
+      <c r="E116">
+        <v>262637</v>
+      </c>
+      <c r="F116" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G116" s="5">
+        <v>24622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF2319-8441-5949-851D-6CF15FDB4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD07753-F8BC-B847-AC24-5FC3DFAC587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42920" yWindow="500" windowWidth="19080" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3160,6 +3160,29 @@
         <v>24622</v>
       </c>
     </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B117">
+        <v>923232</v>
+      </c>
+      <c r="C117">
+        <v>888144</v>
+      </c>
+      <c r="D117">
+        <v>328913</v>
+      </c>
+      <c r="E117">
+        <v>280687</v>
+      </c>
+      <c r="F117" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G117" s="5">
+        <v>32867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD07753-F8BC-B847-AC24-5FC3DFAC587D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AB2ED-56E2-BD4D-8CB6-C33BD5BDF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42920" yWindow="500" windowWidth="19080" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3183,6 +3183,29 @@
         <v>32867</v>
       </c>
     </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B118">
+        <v>923232</v>
+      </c>
+      <c r="C118">
+        <v>891494</v>
+      </c>
+      <c r="D118">
+        <v>328913</v>
+      </c>
+      <c r="E118">
+        <v>283209</v>
+      </c>
+      <c r="F118" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G118" s="5">
+        <v>33351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AB2ED-56E2-BD4D-8CB6-C33BD5BDF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37735BA5-C49D-4141-AF23-0BA2E9DD4EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20000" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3206,6 +3206,29 @@
         <v>33351</v>
       </c>
     </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B119">
+        <v>923232</v>
+      </c>
+      <c r="C119">
+        <v>903290</v>
+      </c>
+      <c r="D119">
+        <v>328913</v>
+      </c>
+      <c r="E119">
+        <v>285196</v>
+      </c>
+      <c r="F119" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G119" s="5">
+        <v>34366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37735BA5-C49D-4141-AF23-0BA2E9DD4EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE8BDE1-1B39-C043-807D-1743177EB4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20000" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3229,6 +3229,98 @@
         <v>34366</v>
       </c>
     </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B120">
+        <v>923232</v>
+      </c>
+      <c r="C120">
+        <v>907437</v>
+      </c>
+      <c r="D120">
+        <v>328913</v>
+      </c>
+      <c r="E120">
+        <v>266222</v>
+      </c>
+      <c r="F120" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G120" s="5">
+        <v>36461</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B121">
+        <v>931761</v>
+      </c>
+      <c r="C121">
+        <v>909356</v>
+      </c>
+      <c r="D121">
+        <v>429995</v>
+      </c>
+      <c r="E121">
+        <v>267205</v>
+      </c>
+      <c r="F121" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G121" s="5">
+        <v>38692</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B122">
+        <v>931761</v>
+      </c>
+      <c r="C122">
+        <v>918903</v>
+      </c>
+      <c r="D122">
+        <v>429995</v>
+      </c>
+      <c r="E122">
+        <v>269426</v>
+      </c>
+      <c r="F122" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G122" s="5">
+        <v>38697</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B123">
+        <v>931761</v>
+      </c>
+      <c r="C123">
+        <v>931490</v>
+      </c>
+      <c r="D123">
+        <v>429995</v>
+      </c>
+      <c r="E123">
+        <v>278330</v>
+      </c>
+      <c r="F123" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G123" s="5">
+        <v>38700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE8BDE1-1B39-C043-807D-1743177EB4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5641E-49E5-5A49-8DCC-3D87A4635FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20000" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3321,6 +3321,29 @@
         <v>38700</v>
       </c>
     </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B124">
+        <v>931761</v>
+      </c>
+      <c r="C124">
+        <v>943038</v>
+      </c>
+      <c r="D124">
+        <v>429995</v>
+      </c>
+      <c r="E124">
+        <v>284674</v>
+      </c>
+      <c r="F124" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G124" s="5">
+        <v>38700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5641E-49E5-5A49-8DCC-3D87A4635FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4887BA3-1D1A-0242-BB31-C20D54EEC12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20000" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3344,6 +3344,29 @@
         <v>38700</v>
       </c>
     </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B125">
+        <v>931761</v>
+      </c>
+      <c r="C125">
+        <v>949323</v>
+      </c>
+      <c r="D125">
+        <v>429995</v>
+      </c>
+      <c r="E125">
+        <v>289106</v>
+      </c>
+      <c r="F125" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G125" s="5">
+        <v>38799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4887BA3-1D1A-0242-BB31-C20D54EEC12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9861988-9F00-4246-998D-EAB01460D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20000" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3367,6 +3367,29 @@
         <v>38799</v>
       </c>
     </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B126">
+        <v>993776</v>
+      </c>
+      <c r="C126">
+        <v>957234</v>
+      </c>
+      <c r="D126">
+        <v>429995</v>
+      </c>
+      <c r="E126">
+        <v>293768</v>
+      </c>
+      <c r="F126" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G126" s="5">
+        <v>38832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9861988-9F00-4246-998D-EAB01460D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EFAF8-53DD-5C43-9942-508DE4283E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3390,6 +3390,98 @@
         <v>38832</v>
       </c>
     </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B127">
+        <v>993776</v>
+      </c>
+      <c r="C127">
+        <v>974913</v>
+      </c>
+      <c r="D127">
+        <v>429995</v>
+      </c>
+      <c r="E127">
+        <v>296864</v>
+      </c>
+      <c r="F127" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G127" s="5">
+        <v>38867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B128">
+        <v>993776</v>
+      </c>
+      <c r="C128">
+        <v>979252</v>
+      </c>
+      <c r="D128">
+        <v>429995</v>
+      </c>
+      <c r="E128">
+        <v>300801</v>
+      </c>
+      <c r="F128" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G128" s="5">
+        <v>38867</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B129">
+        <v>993776</v>
+      </c>
+      <c r="C129">
+        <v>979627</v>
+      </c>
+      <c r="D129">
+        <v>429995</v>
+      </c>
+      <c r="E129">
+        <v>301548</v>
+      </c>
+      <c r="F129" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G129" s="5">
+        <v>38867</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B130">
+        <v>993776</v>
+      </c>
+      <c r="C130">
+        <v>992830</v>
+      </c>
+      <c r="D130">
+        <v>429995</v>
+      </c>
+      <c r="E130">
+        <v>308211</v>
+      </c>
+      <c r="F130">
+        <v>38700</v>
+      </c>
+      <c r="G130">
+        <v>38910</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EFAF8-53DD-5C43-9942-508DE4283E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1740F8-176D-1748-AF92-B7B68A2EFDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3482,6 +3482,52 @@
         <v>38910</v>
       </c>
     </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B131">
+        <v>993776</v>
+      </c>
+      <c r="C131">
+        <v>999801</v>
+      </c>
+      <c r="D131">
+        <v>429995</v>
+      </c>
+      <c r="E131">
+        <v>314699</v>
+      </c>
+      <c r="F131" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G131" s="5">
+        <v>38912</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B132">
+        <v>993776</v>
+      </c>
+      <c r="C132">
+        <v>1003305</v>
+      </c>
+      <c r="D132">
+        <v>429995</v>
+      </c>
+      <c r="E132">
+        <v>321611</v>
+      </c>
+      <c r="F132" s="5">
+        <v>38700</v>
+      </c>
+      <c r="G132" s="5">
+        <v>38916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1740F8-176D-1748-AF92-B7B68A2EFDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E18C3E-C14C-1345-842D-C21E16151EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3528,6 +3528,144 @@
         <v>38916</v>
       </c>
     </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B133">
+        <v>1024496</v>
+      </c>
+      <c r="C133">
+        <v>1013956</v>
+      </c>
+      <c r="D133">
+        <v>506175</v>
+      </c>
+      <c r="E133">
+        <v>326936</v>
+      </c>
+      <c r="F133">
+        <v>38700</v>
+      </c>
+      <c r="G133">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B134">
+        <v>1024496</v>
+      </c>
+      <c r="C134">
+        <v>1025753</v>
+      </c>
+      <c r="D134">
+        <v>506175</v>
+      </c>
+      <c r="E134">
+        <v>330184</v>
+      </c>
+      <c r="F134">
+        <v>38700</v>
+      </c>
+      <c r="G134">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B135">
+        <v>1024496</v>
+      </c>
+      <c r="C135">
+        <v>1027920</v>
+      </c>
+      <c r="D135">
+        <v>506175</v>
+      </c>
+      <c r="E135">
+        <v>332586</v>
+      </c>
+      <c r="F135">
+        <v>38700</v>
+      </c>
+      <c r="G135">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B136">
+        <v>1082346</v>
+      </c>
+      <c r="C136">
+        <v>1033575</v>
+      </c>
+      <c r="D136">
+        <v>506175</v>
+      </c>
+      <c r="E136">
+        <v>335197</v>
+      </c>
+      <c r="F136">
+        <v>38700</v>
+      </c>
+      <c r="G136">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B137">
+        <v>1082346</v>
+      </c>
+      <c r="C137">
+        <v>1052609</v>
+      </c>
+      <c r="D137">
+        <v>506175</v>
+      </c>
+      <c r="E137">
+        <v>339993</v>
+      </c>
+      <c r="F137">
+        <v>38700</v>
+      </c>
+      <c r="G137">
+        <v>38942</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B138">
+        <v>1082346</v>
+      </c>
+      <c r="C138">
+        <v>1068169</v>
+      </c>
+      <c r="D138">
+        <v>506175</v>
+      </c>
+      <c r="E138">
+        <v>345464</v>
+      </c>
+      <c r="F138">
+        <v>38700</v>
+      </c>
+      <c r="G138">
+        <v>38942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E18C3E-C14C-1345-842D-C21E16151EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4476B2-5607-ED49-9BB0-F30200B0CBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3666,6 +3666,29 @@
         <v>38942</v>
       </c>
     </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B139">
+        <v>1082346</v>
+      </c>
+      <c r="C139">
+        <v>1078340</v>
+      </c>
+      <c r="D139">
+        <v>506175</v>
+      </c>
+      <c r="E139">
+        <v>352037</v>
+      </c>
+      <c r="F139">
+        <v>38700</v>
+      </c>
+      <c r="G139">
+        <v>38942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4476B2-5607-ED49-9BB0-F30200B0CBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553913D6-D223-4946-9DE7-D01F7B4435BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39960" yWindow="1040" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3689,6 +3689,29 @@
         <v>38942</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B140">
+        <v>1116556</v>
+      </c>
+      <c r="C140">
+        <v>1086049</v>
+      </c>
+      <c r="D140">
+        <v>506175</v>
+      </c>
+      <c r="E140">
+        <v>357172</v>
+      </c>
+      <c r="F140">
+        <v>38700</v>
+      </c>
+      <c r="G140">
+        <v>38942</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553913D6-D223-4946-9DE7-D01F7B4435BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24207C-D5AB-6948-9182-1C7093D737B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="1040" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3712,6 +3712,52 @@
         <v>38942</v>
       </c>
     </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B141">
+        <v>1116556</v>
+      </c>
+      <c r="C141">
+        <v>1092823</v>
+      </c>
+      <c r="D141">
+        <v>506175</v>
+      </c>
+      <c r="E141">
+        <v>359403</v>
+      </c>
+      <c r="F141">
+        <v>38700</v>
+      </c>
+      <c r="G141">
+        <v>39005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B142">
+        <v>1116556</v>
+      </c>
+      <c r="C142">
+        <v>1109504</v>
+      </c>
+      <c r="D142">
+        <v>506175</v>
+      </c>
+      <c r="E142">
+        <v>365037</v>
+      </c>
+      <c r="F142">
+        <v>38700</v>
+      </c>
+      <c r="G142">
+        <v>39005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24207C-D5AB-6948-9182-1C7093D737B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627E43B4-BB98-D14C-BB8E-A1A34DCC8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3758,6 +3758,29 @@
         <v>39005</v>
       </c>
     </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B143">
+        <v>1193426</v>
+      </c>
+      <c r="C143">
+        <v>1118129</v>
+      </c>
+      <c r="D143">
+        <v>506175</v>
+      </c>
+      <c r="E143">
+        <v>373925</v>
+      </c>
+      <c r="F143">
+        <v>38700</v>
+      </c>
+      <c r="G143">
+        <v>39005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627E43B4-BB98-D14C-BB8E-A1A34DCC8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41AFCE0-E147-664B-8A8F-13EC5AFED9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3781,6 +3781,52 @@
         <v>39005</v>
       </c>
     </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B144">
+        <v>1193426</v>
+      </c>
+      <c r="C144">
+        <v>1144815</v>
+      </c>
+      <c r="D144">
+        <v>506175</v>
+      </c>
+      <c r="E144">
+        <v>380039</v>
+      </c>
+      <c r="F144">
+        <v>39750</v>
+      </c>
+      <c r="G144">
+        <v>39407</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B145">
+        <v>1193426</v>
+      </c>
+      <c r="C145">
+        <v>1166461</v>
+      </c>
+      <c r="D145">
+        <v>506175</v>
+      </c>
+      <c r="E145">
+        <v>386871</v>
+      </c>
+      <c r="F145">
+        <v>39750</v>
+      </c>
+      <c r="G145">
+        <v>39419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41AFCE0-E147-664B-8A8F-13EC5AFED9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC34808-598A-9D45-8C70-948027F483E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39600" yWindow="1960" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3827,6 +3827,29 @@
         <v>39419</v>
       </c>
     </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B146">
+        <v>1241516</v>
+      </c>
+      <c r="C146">
+        <v>1181480</v>
+      </c>
+      <c r="D146">
+        <v>550919</v>
+      </c>
+      <c r="E146">
+        <v>391476</v>
+      </c>
+      <c r="F146">
+        <v>39750</v>
+      </c>
+      <c r="G146">
+        <v>39420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC34808-598A-9D45-8C70-948027F483E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B083685-5D56-FC4B-BD8F-F00076BEFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39600" yWindow="1960" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38780" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3850,6 +3850,75 @@
         <v>39420</v>
       </c>
     </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B147">
+        <v>1241516</v>
+      </c>
+      <c r="C147">
+        <v>1189137</v>
+      </c>
+      <c r="D147">
+        <v>550919</v>
+      </c>
+      <c r="E147">
+        <v>392846</v>
+      </c>
+      <c r="F147">
+        <v>39750</v>
+      </c>
+      <c r="G147">
+        <v>39421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B148">
+        <v>1241516</v>
+      </c>
+      <c r="C148">
+        <v>1190502</v>
+      </c>
+      <c r="D148">
+        <v>550919</v>
+      </c>
+      <c r="E148">
+        <v>395962</v>
+      </c>
+      <c r="F148">
+        <v>39750</v>
+      </c>
+      <c r="G148">
+        <v>39421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B149">
+        <v>1241516</v>
+      </c>
+      <c r="C149">
+        <v>1205231</v>
+      </c>
+      <c r="D149">
+        <v>550919</v>
+      </c>
+      <c r="E149">
+        <v>402037</v>
+      </c>
+      <c r="F149">
+        <v>39750</v>
+      </c>
+      <c r="G149">
+        <v>39425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B083685-5D56-FC4B-BD8F-F00076BEFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64136BF-7431-1448-B833-856C135321EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38780" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3919,6 +3919,29 @@
         <v>39425</v>
       </c>
     </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B150">
+        <v>1333906</v>
+      </c>
+      <c r="C150">
+        <v>1221187</v>
+      </c>
+      <c r="D150">
+        <v>580269</v>
+      </c>
+      <c r="E150">
+        <v>407636</v>
+      </c>
+      <c r="F150">
+        <v>39750</v>
+      </c>
+      <c r="G150">
+        <v>39425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64136BF-7431-1448-B833-856C135321EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7A7A9-BFC9-F14C-B574-BACC2361BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3942,6 +3942,52 @@
         <v>39425</v>
       </c>
     </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B151">
+        <v>1333906</v>
+      </c>
+      <c r="C151">
+        <v>1253599</v>
+      </c>
+      <c r="D151">
+        <v>580269</v>
+      </c>
+      <c r="E151">
+        <v>419999</v>
+      </c>
+      <c r="F151">
+        <v>39750</v>
+      </c>
+      <c r="G151">
+        <v>39426</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B152">
+        <v>1333906</v>
+      </c>
+      <c r="C152">
+        <v>1273440</v>
+      </c>
+      <c r="D152">
+        <v>580269</v>
+      </c>
+      <c r="E152">
+        <v>429371</v>
+      </c>
+      <c r="F152">
+        <v>39750</v>
+      </c>
+      <c r="G152">
+        <v>39426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7A7A9-BFC9-F14C-B574-BACC2361BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787E3C0-EE24-0341-BB63-E3FA149503EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3988,6 +3988,29 @@
         <v>39426</v>
       </c>
     </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B153">
+        <v>1416976</v>
+      </c>
+      <c r="C153">
+        <v>1288226</v>
+      </c>
+      <c r="D153">
+        <v>587289</v>
+      </c>
+      <c r="E153">
+        <v>438035</v>
+      </c>
+      <c r="F153">
+        <v>39750</v>
+      </c>
+      <c r="G153">
+        <v>39434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4787E3C0-EE24-0341-BB63-E3FA149503EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681348C4-A782-8343-93C9-8CF8820C66E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4011,6 +4011,29 @@
         <v>39434</v>
       </c>
     </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B154">
+        <v>1416976</v>
+      </c>
+      <c r="C154">
+        <v>1291848</v>
+      </c>
+      <c r="D154">
+        <v>587289</v>
+      </c>
+      <c r="E154">
+        <v>439177</v>
+      </c>
+      <c r="F154">
+        <v>39750</v>
+      </c>
+      <c r="G154">
+        <v>39434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681348C4-A782-8343-93C9-8CF8820C66E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA6ABC-98A7-3C46-AB05-33CFDE511130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4034,6 +4034,52 @@
         <v>39434</v>
       </c>
     </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B155">
+        <v>1416976</v>
+      </c>
+      <c r="C155">
+        <v>1309667</v>
+      </c>
+      <c r="D155">
+        <v>587289</v>
+      </c>
+      <c r="E155">
+        <v>444572</v>
+      </c>
+      <c r="F155">
+        <v>39750</v>
+      </c>
+      <c r="G155">
+        <v>39485</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B156">
+        <v>1482236</v>
+      </c>
+      <c r="C156">
+        <v>1322361</v>
+      </c>
+      <c r="D156">
+        <v>667299</v>
+      </c>
+      <c r="E156">
+        <v>450536</v>
+      </c>
+      <c r="F156">
+        <v>39750</v>
+      </c>
+      <c r="G156">
+        <v>39485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBA6ABC-98A7-3C46-AB05-33CFDE511130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5892AE9-CFEB-F24C-85F7-B104D0C25B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4080,6 +4080,374 @@
         <v>39485</v>
       </c>
     </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B157">
+        <v>1482236</v>
+      </c>
+      <c r="C157">
+        <v>1335021</v>
+      </c>
+      <c r="D157">
+        <v>667299</v>
+      </c>
+      <c r="E157">
+        <v>457579</v>
+      </c>
+      <c r="F157">
+        <v>39750</v>
+      </c>
+      <c r="G157">
+        <v>39485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B158">
+        <v>1482236</v>
+      </c>
+      <c r="C158">
+        <v>1349019</v>
+      </c>
+      <c r="D158">
+        <v>667299</v>
+      </c>
+      <c r="E158">
+        <v>466482</v>
+      </c>
+      <c r="F158">
+        <v>39750</v>
+      </c>
+      <c r="G158">
+        <v>39485</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B159">
+        <v>1482236</v>
+      </c>
+      <c r="C159">
+        <v>1357601</v>
+      </c>
+      <c r="D159">
+        <v>667299</v>
+      </c>
+      <c r="E159">
+        <v>475016</v>
+      </c>
+      <c r="F159">
+        <v>39750</v>
+      </c>
+      <c r="G159">
+        <v>39485</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B160">
+        <v>1482236</v>
+      </c>
+      <c r="C160">
+        <v>1400631</v>
+      </c>
+      <c r="D160">
+        <v>667299</v>
+      </c>
+      <c r="E160">
+        <v>478997</v>
+      </c>
+      <c r="F160">
+        <v>39750</v>
+      </c>
+      <c r="G160">
+        <v>39942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B161">
+        <v>1482236</v>
+      </c>
+      <c r="C161">
+        <v>1417132</v>
+      </c>
+      <c r="D161">
+        <v>667299</v>
+      </c>
+      <c r="E161">
+        <v>490232</v>
+      </c>
+      <c r="F161">
+        <v>39750</v>
+      </c>
+      <c r="G161">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B162">
+        <v>1505856</v>
+      </c>
+      <c r="C162">
+        <v>1420471</v>
+      </c>
+      <c r="D162">
+        <v>800786</v>
+      </c>
+      <c r="E162">
+        <v>497561</v>
+      </c>
+      <c r="F162">
+        <v>39750</v>
+      </c>
+      <c r="G162">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B163">
+        <v>1505856</v>
+      </c>
+      <c r="C163">
+        <v>1426524</v>
+      </c>
+      <c r="D163">
+        <v>800786</v>
+      </c>
+      <c r="E163">
+        <v>509292</v>
+      </c>
+      <c r="F163">
+        <v>39750</v>
+      </c>
+      <c r="G163">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B164">
+        <v>1505856</v>
+      </c>
+      <c r="C164">
+        <v>1430500</v>
+      </c>
+      <c r="D164">
+        <v>800786</v>
+      </c>
+      <c r="E164">
+        <v>526185</v>
+      </c>
+      <c r="F164">
+        <v>39750</v>
+      </c>
+      <c r="G164">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B165">
+        <v>1505856</v>
+      </c>
+      <c r="C165">
+        <v>1433995</v>
+      </c>
+      <c r="D165">
+        <v>800786</v>
+      </c>
+      <c r="E165">
+        <v>535772</v>
+      </c>
+      <c r="F165">
+        <v>39750</v>
+      </c>
+      <c r="G165">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B166">
+        <v>1505856</v>
+      </c>
+      <c r="C166">
+        <v>1434678</v>
+      </c>
+      <c r="D166">
+        <v>800786</v>
+      </c>
+      <c r="E166">
+        <v>538935</v>
+      </c>
+      <c r="F166">
+        <v>39750</v>
+      </c>
+      <c r="G166">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B167">
+        <v>1505856</v>
+      </c>
+      <c r="C167">
+        <v>1435077</v>
+      </c>
+      <c r="D167">
+        <v>800786</v>
+      </c>
+      <c r="E167">
+        <v>552857</v>
+      </c>
+      <c r="F167">
+        <v>39750</v>
+      </c>
+      <c r="G167">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B168">
+        <v>1505856</v>
+      </c>
+      <c r="C168">
+        <v>1436753</v>
+      </c>
+      <c r="D168">
+        <v>800786</v>
+      </c>
+      <c r="E168">
+        <v>565854</v>
+      </c>
+      <c r="F168">
+        <v>39750</v>
+      </c>
+      <c r="G168">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B169">
+        <v>1527766</v>
+      </c>
+      <c r="C169">
+        <v>1443028</v>
+      </c>
+      <c r="D169">
+        <v>914366</v>
+      </c>
+      <c r="E169">
+        <v>588034</v>
+      </c>
+      <c r="F169">
+        <v>39750</v>
+      </c>
+      <c r="G169">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B170">
+        <v>1527766</v>
+      </c>
+      <c r="C170">
+        <v>1451814</v>
+      </c>
+      <c r="D170">
+        <v>914366</v>
+      </c>
+      <c r="E170">
+        <v>602888</v>
+      </c>
+      <c r="F170">
+        <v>39750</v>
+      </c>
+      <c r="G170">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B171">
+        <v>1527766</v>
+      </c>
+      <c r="C171">
+        <v>1453771</v>
+      </c>
+      <c r="D171">
+        <v>914366</v>
+      </c>
+      <c r="E171">
+        <v>606539</v>
+      </c>
+      <c r="F171">
+        <v>39750</v>
+      </c>
+      <c r="G171">
+        <v>39952</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B172">
+        <v>1527766</v>
+      </c>
+      <c r="C172">
+        <v>1462728</v>
+      </c>
+      <c r="D172">
+        <v>914366</v>
+      </c>
+      <c r="E172">
+        <v>634665</v>
+      </c>
+      <c r="F172">
+        <v>39750</v>
+      </c>
+      <c r="G172">
+        <v>39952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5892AE9-CFEB-F24C-85F7-B104D0C25B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64D90A-4AC8-B74C-9E38-EDAE3BE1F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4448,6 +4448,29 @@
         <v>39952</v>
       </c>
     </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B173">
+        <v>1527766</v>
+      </c>
+      <c r="C173">
+        <v>1472377</v>
+      </c>
+      <c r="D173">
+        <v>914366</v>
+      </c>
+      <c r="E173">
+        <v>673946</v>
+      </c>
+      <c r="F173">
+        <v>39750</v>
+      </c>
+      <c r="G173">
+        <v>40023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sergipe/data_general/historico_sergipe.xlsx
+++ b/Sergipe/data_general/historico_sergipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adolfoguimaraes/Dev/DataViz/covid19-br/Vacinacao/Sergipe/data_general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64D90A-4AC8-B74C-9E38-EDAE3BE1F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC5736D-FCE5-9A4A-A7E6-EB12EC9FEC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="27320" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4471,6 +4471,52 @@
         <v>40023</v>
       </c>
     </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B174">
+        <v>1602737</v>
+      </c>
+      <c r="C174">
+        <v>1480519</v>
+      </c>
+      <c r="D174">
+        <v>921386</v>
+      </c>
+      <c r="E174">
+        <v>700142</v>
+      </c>
+      <c r="F174">
+        <v>39750</v>
+      </c>
+      <c r="G174">
+        <v>40023</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B175">
+        <v>1602737</v>
+      </c>
+      <c r="C175">
+        <v>1489443</v>
+      </c>
+      <c r="D175">
+        <v>921386</v>
+      </c>
+      <c r="E175">
+        <v>708689</v>
+      </c>
+      <c r="F175">
+        <v>39750</v>
+      </c>
+      <c r="G175">
+        <v>40023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
